--- a/programs/web/assginment/Miniproject.xlsx
+++ b/programs/web/assginment/Miniproject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\ise\mern\workshop\programs\web\assginment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E724B354-FC31-42A1-8A85-709E65D1CB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEEA058-554A-48AE-8168-3FF477FC79B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Mini Project-ecom app</t>
+  </si>
+  <si>
+    <t>on login success - Member component</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
   <dimension ref="E2:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +648,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>12</v>
